--- a/results_submaps/nf/30x30/nf_30x30_True_2_500.xlsx
+++ b/results_submaps/nf/30x30/nf_30x30_True_2_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,218 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33.124</v>
+      </c>
+      <c r="D14" t="n">
+        <v>495.824</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.76684556</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31235921.16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09416868</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.20787342</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.18301338</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.918986106177331</v>
+      </c>
+      <c r="K14" t="n">
+        <v>103.5211779907144</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3522973706837276</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14600205.03556428</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01862986839057378</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.05919403656478638</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.445140540961417</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45.036</v>
+      </c>
+      <c r="D15" t="n">
+        <v>656.188</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.3126927</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30581864.56</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.06812261999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.204237</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.4420936</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.535533992033358</v>
+      </c>
+      <c r="K15" t="n">
+        <v>106.0260898054761</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1974610677928634</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10275691.9165597</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.00852820517474839</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.04144504982395147</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.546223959162438</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.656</v>
+      </c>
+      <c r="D16" t="n">
+        <v>491.87</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.78192656</v>
+      </c>
+      <c r="F16" t="n">
+        <v>49877230.024</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.13100712</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.16222742</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.189310320000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.041080140005306</v>
+      </c>
+      <c r="K16" t="n">
+        <v>100.5283492254597</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3670499658998767</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20348057.83743384</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02335894581535754</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.04862271945127375</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.110765459261526</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.578</v>
+      </c>
+      <c r="D17" t="n">
+        <v>666.562</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.29426156</v>
+      </c>
+      <c r="F17" t="n">
+        <v>54204474.64</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.09939218000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.17193766</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.11989512</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.826475059866513</v>
+      </c>
+      <c r="K17" t="n">
+        <v>108.3662893215535</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2056288652139693</v>
+      </c>
+      <c r="M17" t="n">
+        <v>16340568.5136297</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01072079960338182</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0355325839782691</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.340855516793035</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
